--- a/biology/Botanique/Tabebuia_pallida/Tabebuia_pallida.xlsx
+++ b/biology/Botanique/Tabebuia_pallida/Tabebuia_pallida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le calice du pape[1] (Tabebuia pallida) est un arbre de la famille des Bignoniaceae, originaire d'Amérique tropicale. Il produit des fruits comestibles.
-Il est connu sous le nom vernaculaire de poirier-pays ou pwayé (blan) aux Antilles françaises. Il est invasif à La Réunion ou à Maurice[2] où il est localement connu sous le nom de tecoma. On peut admirer des sujets au jardin botanique de Pamplemousses.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le calice du pape (Tabebuia pallida) est un arbre de la famille des Bignoniaceae, originaire d'Amérique tropicale. Il produit des fruits comestibles.
+Il est connu sous le nom vernaculaire de poirier-pays ou pwayé (blan) aux Antilles françaises. Il est invasif à La Réunion ou à Maurice où il est localement connu sous le nom de tecoma. On peut admirer des sujets au jardin botanique de Pamplemousses.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3">
         <f> Bignonia cranalis Krause
 = Tabebuia dominicensis Urb.
 = Tabebuia heterophylla dominicensis (Urb.) Stehlé</f>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre très proche de Tabebuia heterophylla, distingué généralement de ce dernier par ses feuilles simples ou à trois folioles, ses fleurs rose-mauve presque blanches et sa taille plus élevée[3].
-Les deux espèces s'hybrident facilement. Des études génétiques n'ont pas trouvé de différences significatives entre elles[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre très proche de Tabebuia heterophylla, distingué généralement de ce dernier par ses feuilles simples ou à trois folioles, ses fleurs rose-mauve presque blanches et sa taille plus élevée.
+Les deux espèces s'hybrident facilement. Des études génétiques n'ont pas trouvé de différences significatives entre elles.
 Si elles doivent être fusionnées, le binôme Tabebuia heterophylla aura la priorité.
 			Fleur
 </t>
@@ -577,7 +593,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre endémique des Petites Antilles.
 </t>
